--- a/biology/Médecine/Société_canadienne_de_cardiologie/Société_canadienne_de_cardiologie.xlsx
+++ b/biology/Médecine/Société_canadienne_de_cardiologie/Société_canadienne_de_cardiologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_canadienne_de_cardiologie</t>
+          <t>Société_canadienne_de_cardiologie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Société Canadienne de Cardiologie conduit le projet SCORE CANADA qui vise à construire un outil global, permettant la stratification et la gestion du risque cardio-vasculaire.  Le projet est maintenant en phase de dissémination et d’implantation.  L'objectif est de développer et de mettre en place une approche commune d’évaluation des patients asymptomatiques, parmi les professionnels de la santé et la population en général.  
 L’outil SCORE CANADA (Systematic COronary Risk Evaluation) s’avère la réponse au besoin d’obtenir un outil qui soit calibré pour fin d’évaluation du risque, chez les patients canadiens ne présentant aucun symptôme. Plus en profondeur encore que FRS (Framingham Risk Score), SCORE CANADA prend en considération les variables telles que l’âge, le sexe, le tabagisme, le niveau de tension artérielle et le ratio LDL/HDL, dressant ainsi une évaluation stratifiée du risque cardiaque et plus encore, un portrait global du risque cardio/cérébro-vasculaire.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_canadienne_de_cardiologie</t>
+          <t>Société_canadienne_de_cardiologie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>site de SCORE CANADA</t>
         </is>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_canadienne_de_cardiologie</t>
+          <t>Société_canadienne_de_cardiologie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Estimation of ten-year risk of fatal cardiovascular disease in Europe: the SCORE project, European Heart Journal (2003) 24, 987–1003 :
 R.M. Conroy, K. Pyörälä, A.P. Fitzgerald, S. Sans, A. Menotti, G. De Backer, D. De Bacquer, P. Ducimetière, P. Jousilahti, U. Keil, I. Njølstad, R.G. Oganov, T. Thomsen, H. Tunstall-Pedoe, A. Tverdal, H. Wedel, P. Whincup, L. Wilhelmsen, I.M. Graham on behalf of the SCORE project group.
